--- a/plpgsql-declarations/PLpgSQL_宣言動作確認.xlsx
+++ b/plpgsql-declarations/PLpgSQL_宣言動作確認.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B4AD9-555E-41AB-B445-36E67D6870CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A9DB5-4D12-4328-A334-E51D1F384C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
